--- a/Ratio.xlsx
+++ b/Ratio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfernandez/Desktop/Work/PostDoc Geomar 2018-2021/Chemtax/Chemtax_R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfernandez/HPLC_Chemtax/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C407C91-83A9-2D44-94FF-F6B3C4CD0F12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5D31329-60F9-6342-A858-07FFB70DB301}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{459537AB-6188-A14F-AEC3-DAF9EA2D7AF1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{459537AB-6188-A14F-AEC3-DAF9EA2D7AF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
